--- a/biology/Zoologie/Coucou_à_éventail/Coucou_à_éventail.xlsx
+++ b/biology/Zoologie/Coucou_à_éventail/Coucou_à_éventail.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Coucou_%C3%A0_%C3%A9ventail</t>
+          <t>Coucou_à_éventail</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cacomantis flabelliformis
 Le Coucou à éventail (Cacomantis flabelliformis) est une espèce d'oiseaux de la famille des Cuculidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Coucou_%C3%A0_%C3%A9ventail</t>
+          <t>Coucou_à_éventail</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau se trouve en Australie, aux Fidji, en Indonésie, en Nouvelle-Calédonie, en Nouvelle-Zélande, en Papouasie-Nouvelle-Guinée, aux Îles Salomon et au Vanuatu.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Coucou_%C3%A0_%C3%A9ventail</t>
+          <t>Coucou_à_éventail</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il habite les forêts tempérées, tropicales ou subtropicales, les mangroves, les forêts  subtropicales ou tropicales humides de l'étage montagnard, les champs, les vergers et les jardins. La population australienne va de Cape York dans le Queensland jusqu'à Shark Bay en Australie-Occidentale en passant par le sud. Le long de la côte ouest, son aire de répartition ne s'étend pas à plus de 1000 km à l'intérieur des terres. En Australie-Méridionale, il vit uniquement le long de la côte, sauf dans le sud-est dans la région de Mount Gambier et de la péninsule d'Eyre. Il habite également la Tasmanie.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Coucou_%C3%A0_%C3%A9ventail</t>
+          <t>Coucou_à_éventail</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">En Australie, l'espèce niche de janvier à juillet. La femelle dépose un œuf mauve, tacheté de blanc, rouge et/ou brun dans le nid d'autres oiseaux comme le Mérion élégant ou les acanthizes. Il préfère généralement les nids en forme de dôme.
 </t>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Coucou_%C3%A0_%C3%A9ventail</t>
+          <t>Coucou_à_éventail</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,7 +623,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">En Australie, il mange une grande variété d'insectes et leurs larves, des fruits et des légumes, de petits reptiles, mammifères et oiseaux, surtout sous forme de poussins.
 </t>
@@ -618,7 +638,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Coucou_%C3%A0_%C3%A9ventail</t>
+          <t>Coucou_à_éventail</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -636,7 +656,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>D'après Alan P. Peterson, 5 sous-espèces ont été décrites :
 Cacomantis flabelliformis excitus Rothschild &amp; Hartert, 1907
